--- a/datasets/Border Patrol Agent Staffing/Staffing by Sector.xlsx
+++ b/datasets/Border Patrol Agent Staffing/Staffing by Sector.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itdsrvfile02.utep.edu\HUNT\_DATABASES\DATA_REPOSITORY_2021\Eduardo- Data Repository\7. Border Security\Border Patrol Agent Staffing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jematanevar\Documents\New Data Rep\datasets\Border Patrol Agent Staffing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE541FD9-6A86-4B34-9265-E0A2B95C8990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58E6C7A-90CB-43C8-9FBE-F640746F9B21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="24">
   <si>
     <t>Big Bend(formerly Marfa)</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Yuma</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Staff</t>
@@ -903,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C610"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A325" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J348" sqref="J348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,13 +913,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4584,8 +4581,8 @@
       <c r="B334" t="s">
         <v>11</v>
       </c>
-      <c r="C334" t="s">
-        <v>21</v>
+      <c r="C334">
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4595,8 +4592,8 @@
       <c r="B335" t="s">
         <v>11</v>
       </c>
-      <c r="C335" t="s">
-        <v>21</v>
+      <c r="C335">
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,8 +4603,8 @@
       <c r="B336" t="s">
         <v>11</v>
       </c>
-      <c r="C336" t="s">
-        <v>21</v>
+      <c r="C336">
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4617,8 +4614,8 @@
       <c r="B337" t="s">
         <v>11</v>
       </c>
-      <c r="C337" t="s">
-        <v>21</v>
+      <c r="C337">
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4628,8 +4625,8 @@
       <c r="B338" t="s">
         <v>11</v>
       </c>
-      <c r="C338" t="s">
-        <v>21</v>
+      <c r="C338">
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,8 +4636,8 @@
       <c r="B339" t="s">
         <v>11</v>
       </c>
-      <c r="C339" t="s">
-        <v>21</v>
+      <c r="C339">
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4650,8 +4647,8 @@
       <c r="B340" t="s">
         <v>11</v>
       </c>
-      <c r="C340" t="s">
-        <v>21</v>
+      <c r="C340">
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4661,8 +4658,8 @@
       <c r="B341" t="s">
         <v>11</v>
       </c>
-      <c r="C341" t="s">
-        <v>21</v>
+      <c r="C341">
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4672,8 +4669,8 @@
       <c r="B342" t="s">
         <v>11</v>
       </c>
-      <c r="C342" t="s">
-        <v>21</v>
+      <c r="C342">
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4683,8 +4680,8 @@
       <c r="B343" t="s">
         <v>11</v>
       </c>
-      <c r="C343" t="s">
-        <v>21</v>
+      <c r="C343">
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4694,8 +4691,8 @@
       <c r="B344" t="s">
         <v>11</v>
       </c>
-      <c r="C344" t="s">
-        <v>21</v>
+      <c r="C344">
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4705,8 +4702,8 @@
       <c r="B345" t="s">
         <v>11</v>
       </c>
-      <c r="C345" t="s">
-        <v>21</v>
+      <c r="C345">
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4716,8 +4713,8 @@
       <c r="B346" t="s">
         <v>11</v>
       </c>
-      <c r="C346" t="s">
-        <v>21</v>
+      <c r="C346">
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4727,8 +4724,8 @@
       <c r="B347" t="s">
         <v>11</v>
       </c>
-      <c r="C347" t="s">
-        <v>21</v>
+      <c r="C347">
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -4738,8 +4735,8 @@
       <c r="B348" t="s">
         <v>11</v>
       </c>
-      <c r="C348" t="s">
-        <v>21</v>
+      <c r="C348">
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -4749,8 +4746,8 @@
       <c r="B349" t="s">
         <v>11</v>
       </c>
-      <c r="C349" t="s">
-        <v>21</v>
+      <c r="C349">
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
